--- a/artfynd/A 49753-2019.xlsx
+++ b/artfynd/A 49753-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY157"/>
+  <dimension ref="A1:AY158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20374,6 +20374,119 @@
       </c>
       <c r="AY157" t="inlineStr"/>
     </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>108964154</v>
+      </c>
+      <c r="B158" t="n">
+        <v>77614</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>967</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Varglav</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Letharia vulpina</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>(L.) Hue</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Stora Björnberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>542105.6320487261</v>
+      </c>
+      <c r="R158" t="n">
+        <v>6756744.505174812</v>
+      </c>
+      <c r="S158" t="n">
+        <v>25</v>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>Enviken</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AD158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT158" t="inlineStr"/>
+      <c r="AW158" t="inlineStr">
+        <is>
+          <t>Pär Karlsson</t>
+        </is>
+      </c>
+      <c r="AX158" t="inlineStr">
+        <is>
+          <t>Pär Karlsson</t>
+        </is>
+      </c>
+      <c r="AY158" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 49753-2019.xlsx
+++ b/artfynd/A 49753-2019.xlsx
@@ -20417,10 +20417,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>542105.6320487261</v>
+        <v>542106</v>
       </c>
       <c r="R158" t="n">
-        <v>6756744.505174812</v>
+        <v>6756745</v>
       </c>
       <c r="S158" t="n">
         <v>25</v>

--- a/artfynd/A 49753-2019.xlsx
+++ b/artfynd/A 49753-2019.xlsx
@@ -20379,7 +20379,7 @@
         <v>108964154</v>
       </c>
       <c r="B158" t="n">
-        <v>77614</v>
+        <v>77734</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>

--- a/artfynd/A 49753-2019.xlsx
+++ b/artfynd/A 49753-2019.xlsx
@@ -20379,7 +20379,7 @@
         <v>108964154</v>
       </c>
       <c r="B158" t="n">
-        <v>77734</v>
+        <v>77748</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
